--- a/statistics/HistoricalDistanceData/historical_distance/Q186166-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q186166-en.xlsx
@@ -31,138 +31,138 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Galveston was 'The Ellis Island of the West'</t>
+  </si>
+  <si>
+    <t>Central Standard Time Zone - CST</t>
+  </si>
+  <si>
+    <t>Clipping from Longview News-Journal</t>
+  </si>
+  <si>
+    <t>Portrait of a Legend: The Great Storm of 1900: St. Mary’s Orphan Asylum</t>
+  </si>
+  <si>
+    <t>The Tempest At Galveston: 'We Knew There Was A Storm Coming, But We Had No Idea'</t>
+  </si>
+  <si>
+    <t>Clipping from Star-Gazette</t>
+  </si>
+  <si>
+    <t>William Marsh Rice and His Legacy</t>
+  </si>
+  <si>
+    <t>How the Galveston Hurricane of 1900 Became the Deadliest U.S. Natural Disaster</t>
+  </si>
+  <si>
+    <t>Great Storm of 1900 brought winds of change</t>
+  </si>
+  <si>
+    <t>Town Abandoned After 2 Hurricanes : Ruins Mark Once-Busy Texas Port</t>
+  </si>
+  <si>
     <t>Mythic Galveston : reinventing America's third coast</t>
   </si>
   <si>
-    <t>Portrait of a Legend: The Great Storm of 1900: St. Mary’s Orphan Asylum</t>
-  </si>
-  <si>
-    <t>Great Storm of 1900 brought winds of change</t>
+    <t>The 10 Worst U.S. Natural Disasters</t>
+  </si>
+  <si>
+    <t>The Portal to Texas History</t>
+  </si>
+  <si>
+    <t>Houston Eyes Designer Bonds to Pay for $15 Billion Ike Dike</t>
   </si>
   <si>
     <t>The story behind a lost statue honoring victims of Galveston's deadly 1900 hurricane</t>
   </si>
   <si>
-    <t>Central Standard Time Zone - CST</t>
-  </si>
-  <si>
-    <t>Houston Eyes Designer Bonds to Pay for $15 Billion Ike Dike</t>
-  </si>
-  <si>
-    <t>William Marsh Rice and His Legacy</t>
-  </si>
-  <si>
-    <t>Clipping from Longview News-Journal</t>
-  </si>
-  <si>
-    <t>Town Abandoned After 2 Hurricanes : Ruins Mark Once-Busy Texas Port</t>
-  </si>
-  <si>
-    <t>Galveston was 'The Ellis Island of the West'</t>
-  </si>
-  <si>
-    <t>The Portal to Texas History</t>
-  </si>
-  <si>
-    <t>Clipping from Star-Gazette</t>
-  </si>
-  <si>
-    <t>The 10 Worst U.S. Natural Disasters</t>
-  </si>
-  <si>
-    <t>The Tempest At Galveston: 'We Knew There Was A Storm Coming, But We Had No Idea'</t>
-  </si>
-  <si>
-    <t>How the Galveston Hurricane of 1900 Became the Deadliest U.S. Natural Disaster</t>
+    <t>Clipping from El Paso Herald</t>
+  </si>
+  <si>
+    <t>Clipping from Victoria Advocate</t>
+  </si>
+  <si>
+    <t>Clipping from Evening Star</t>
+  </si>
+  <si>
+    <t>ROBERT, HENRY MARTYN</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>Clipping from Chicago Tribune</t>
+  </si>
+  <si>
+    <t>INDIANOLA HURRICANES</t>
+  </si>
+  <si>
+    <t>Clipping from The Houston Post</t>
+  </si>
+  <si>
+    <t>Clipping from Natchez Democrat</t>
   </si>
   <si>
     <t>Clipping from The Times-Democrat</t>
   </si>
   <si>
+    <t>History of The Grand</t>
+  </si>
+  <si>
+    <t>Clipping from The Boston Globe</t>
+  </si>
+  <si>
     <t>Clipping from The Semi-Weekly Times-Democrat</t>
   </si>
   <si>
-    <t>Clipping from Chicago Tribune</t>
-  </si>
-  <si>
     <t>HOUSTON SHIP CHANNEL</t>
   </si>
   <si>
-    <t>INDIANOLA HURRICANES</t>
-  </si>
-  <si>
-    <t>Clipping from Victoria Advocate</t>
-  </si>
-  <si>
-    <t>Clipping from The Boston Globe</t>
-  </si>
-  <si>
-    <t>Clipping from El Paso Herald</t>
-  </si>
-  <si>
-    <t>U.S. Census Bureau</t>
-  </si>
-  <si>
-    <t>Clipping from Natchez Democrat</t>
-  </si>
-  <si>
-    <t>Clipping from Evening Star</t>
-  </si>
-  <si>
-    <t>History of The Grand</t>
-  </si>
-  <si>
-    <t>ROBERT, HENRY MARTYN</t>
-  </si>
-  <si>
-    <t>Clipping from The Houston Post</t>
+    <t>1991-07-29T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2015-11-14T21:33:41UTC</t>
+  </si>
+  <si>
+    <t>2000-09-09T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2012-12-31T05:00:25UTC</t>
+  </si>
+  <si>
+    <t>2017-11-30T05:08:00UTC</t>
+  </si>
+  <si>
+    <t>2000-09-04T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-11-07T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2017-08-29T16:18:04UTC</t>
+  </si>
+  <si>
+    <t>2016-05-19T05:54:00UTC</t>
+  </si>
+  <si>
+    <t>1986-11-16T08:00:00UTC</t>
   </si>
   <si>
     <t>2002-01-08T00:00:00UTC</t>
   </si>
   <si>
-    <t>2012-12-31T05:00:25UTC</t>
-  </si>
-  <si>
-    <t>2016-05-19T05:54:00UTC</t>
+    <t>2007-11-07T15:07:00UTC</t>
+  </si>
+  <si>
+    <t>2021-01-06T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2018-08-30T09:00:03UTC</t>
   </si>
   <si>
     <t>2018-04-24T20:26:04UTC</t>
   </si>
   <si>
-    <t>2015-11-14T21:33:41UTC</t>
-  </si>
-  <si>
-    <t>2018-08-30T09:00:03UTC</t>
-  </si>
-  <si>
-    <t>2020-11-07T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2000-09-09T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>1986-11-16T08:00:00UTC</t>
-  </si>
-  <si>
-    <t>1991-07-29T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2021-01-06T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2000-09-04T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2007-11-07T15:07:00UTC</t>
-  </si>
-  <si>
-    <t>2017-11-30T05:08:00UTC</t>
-  </si>
-  <si>
-    <t>2017-08-29T16:18:04UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -172,91 +172,91 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://www.upi.com/Archives/1991/07/29/Galveston-was-The-Ellis-Island-of-the-West/2969680760000/</t>
+  </si>
+  <si>
+    <t>https://www.worldtimeserver.com/time-zones/cst/</t>
+  </si>
+  <si>
+    <t>https://www.newspapers.com/clip/19338041/longview_newsjournal/</t>
+  </si>
+  <si>
+    <t>https://www.houstonfamilymagazine.com/features/portrait-of-a-legend-the-great-storm-of-1900-st-marys-orphan-asylum/</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/2017/11/30/566950355/the-tempest-at-galveston-we-knew-there-was-a-storm-coming-but-we-had-no-idea</t>
+  </si>
+  <si>
+    <t>https://www.newspapers.com/clip/19338300/stargazette/</t>
+  </si>
+  <si>
+    <t>https://www.heritagesociety.org/william-marsh-rice</t>
+  </si>
+  <si>
+    <t>https://www.history.com/news/how-the-galveston-hurricane-of-1900-became-the-deadliest-u-s-natural-disaster</t>
+  </si>
+  <si>
+    <t>http://www.houstonchronicle.com/local/history/article/Great-Storm-of-1900-brought-winds-of-change-7724171.php</t>
+  </si>
+  <si>
+    <t>https://www.latimes.com/archives/la-xpm-1986-11-16-mn-7680-story.html</t>
+  </si>
+  <si>
     <t>https://archive.org/details/mythicgalvestonr0000hard/page/13</t>
   </si>
   <si>
-    <t>https://www.houstonfamilymagazine.com/features/portrait-of-a-legend-the-great-storm-of-1900-st-marys-orphan-asylum/</t>
-  </si>
-  <si>
-    <t>http://www.houstonchronicle.com/local/history/article/Great-Storm-of-1900-brought-winds-of-change-7724171.php</t>
+    <t>https://www.livescience.com/11365-10-worst-natural-disasters.html</t>
+  </si>
+  <si>
+    <t>http://texashistory.unt.edu/</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2018-08-30/houston-eyes-designer-bonds-in-quest-for-15-billion-storm-wall</t>
   </si>
   <si>
     <t>https://www.chron.com/neighborhood/galveston/article/The-story-behind-a-lost-statue-honoring-victims-12861181.php</t>
   </si>
   <si>
-    <t>https://www.worldtimeserver.com/time-zones/cst/</t>
-  </si>
-  <si>
-    <t>https://www.bloomberg.com/news/articles/2018-08-30/houston-eyes-designer-bonds-in-quest-for-15-billion-storm-wall</t>
-  </si>
-  <si>
-    <t>https://www.heritagesociety.org/william-marsh-rice</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/19338041/longview_newsjournal/</t>
-  </si>
-  <si>
-    <t>https://www.latimes.com/archives/la-xpm-1986-11-16-mn-7680-story.html</t>
-  </si>
-  <si>
-    <t>https://www.upi.com/Archives/1991/07/29/Galveston-was-The-Ellis-Island-of-the-West/2969680760000/</t>
-  </si>
-  <si>
-    <t>http://texashistory.unt.edu/</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/19338300/stargazette/</t>
-  </si>
-  <si>
-    <t>https://www.livescience.com/11365-10-worst-natural-disasters.html</t>
-  </si>
-  <si>
-    <t>https://www.npr.org/2017/11/30/566950355/the-tempest-at-galveston-we-knew-there-was-a-storm-coming-but-we-had-no-idea</t>
-  </si>
-  <si>
-    <t>https://www.history.com/news/how-the-galveston-hurricane-of-1900-became-the-deadliest-u-s-natural-disaster</t>
+    <t>https://www.newspapers.com/clip/28316468/el_paso_herald/</t>
+  </si>
+  <si>
+    <t>https://www.newspapers.com/clip/28317264/victoria_advocate/</t>
+  </si>
+  <si>
+    <t>https://www.newspapers.com/clip/32168707/evening_star/</t>
+  </si>
+  <si>
+    <t>https://tshaonline.org/handbook/online/articles/fro96</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/history/www/homepage_archive/2015/september_2015.html</t>
+  </si>
+  <si>
+    <t>https://www.newspapers.com/clip/28316599/chicago_tribune/</t>
+  </si>
+  <si>
+    <t>https://tshaonline.org/handbook/online/articles/ydi01</t>
+  </si>
+  <si>
+    <t>https://www.newspapers.com/clip/26052143/the_houston_post/</t>
+  </si>
+  <si>
+    <t>https://www.newspapers.com/clip/23272945/natchez_democrat/</t>
   </si>
   <si>
     <t>https://www.newspapers.com/clip/23343240/the_timesdemocrat/</t>
   </si>
   <si>
+    <t>http://www.thegrand.com/history-of-the-grand/</t>
+  </si>
+  <si>
+    <t>https://www.newspapers.com/clip/31401801/the_boston_globe/</t>
+  </si>
+  <si>
     <t>https://www.newspapers.com/clip/23273022/the_semiweekly_timesdemocrat/</t>
   </si>
   <si>
-    <t>https://www.newspapers.com/clip/28316599/chicago_tribune/</t>
-  </si>
-  <si>
     <t>https://tshaonline.org/handbook/online/articles/rhh11</t>
-  </si>
-  <si>
-    <t>https://tshaonline.org/handbook/online/articles/ydi01</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/28317264/victoria_advocate/</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/31401801/the_boston_globe/</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/28316468/el_paso_herald/</t>
-  </si>
-  <si>
-    <t>https://www.census.gov/history/www/homepage_archive/2015/september_2015.html</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/23272945/natchez_democrat/</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/32168707/evening_star/</t>
-  </si>
-  <si>
-    <t>http://www.thegrand.com/history-of-the-grand/</t>
-  </si>
-  <si>
-    <t>https://tshaonline.org/handbook/online/articles/fro96</t>
-  </si>
-  <si>
-    <t>https://www.newspapers.com/clip/26052143/the_houston_post/</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
         <v>34</v>
       </c>
       <c r="C2">
-        <v>37262</v>
+        <v>33446</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -675,7 +675,7 @@
         <v>35</v>
       </c>
       <c r="C3">
-        <v>41272</v>
+        <v>42320</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -692,7 +692,7 @@
         <v>36</v>
       </c>
       <c r="C4">
-        <v>42507</v>
+        <v>36776</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -709,7 +709,7 @@
         <v>37</v>
       </c>
       <c r="C5">
-        <v>43212</v>
+        <v>41272</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -726,7 +726,7 @@
         <v>38</v>
       </c>
       <c r="C6">
-        <v>42320</v>
+        <v>43067</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -743,7 +743,7 @@
         <v>39</v>
       </c>
       <c r="C7">
-        <v>43340</v>
+        <v>36771</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -777,7 +777,7 @@
         <v>41</v>
       </c>
       <c r="C9">
-        <v>36776</v>
+        <v>42974</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
@@ -794,7 +794,7 @@
         <v>42</v>
       </c>
       <c r="C10">
-        <v>31730</v>
+        <v>42507</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
@@ -811,7 +811,7 @@
         <v>43</v>
       </c>
       <c r="C11">
-        <v>33446</v>
+        <v>31730</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
@@ -828,7 +828,7 @@
         <v>44</v>
       </c>
       <c r="C12">
-        <v>44200</v>
+        <v>37262</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -845,7 +845,7 @@
         <v>45</v>
       </c>
       <c r="C13">
-        <v>36771</v>
+        <v>39391</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -862,7 +862,7 @@
         <v>46</v>
       </c>
       <c r="C14">
-        <v>39391</v>
+        <v>44200</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
@@ -879,7 +879,7 @@
         <v>47</v>
       </c>
       <c r="C15">
-        <v>43067</v>
+        <v>43340</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -896,7 +896,7 @@
         <v>48</v>
       </c>
       <c r="C16">
-        <v>42974</v>
+        <v>43212</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
